--- a/data/evaluation/evaluation_South_Autumn_Radishes.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Radishes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2218.136631531917</v>
+        <v>2194.41072406967</v>
       </c>
       <c r="C4" t="n">
-        <v>17803738.44856127</v>
+        <v>17536859.56683692</v>
       </c>
       <c r="D4" t="n">
-        <v>4219.447647330308</v>
+        <v>4187.703376176125</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1067440089597196</v>
+        <v>-0.0901538639000361</v>
       </c>
     </row>
     <row r="5">
